--- a/MoonLake Immunotherapeutics.xlsx
+++ b/MoonLake Immunotherapeutics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCKJAM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D5BE6D-A855-45BA-9435-C38A51A72C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193E2274-01C4-4472-BD00-2385943F8224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Ticker</t>
   </si>
@@ -78,13 +78,34 @@
     <t>interleukin IL-17A and IL-17F</t>
   </si>
   <si>
-    <t>https://clinicaltrials.gov/study/NCT03384745?tab=results</t>
-  </si>
-  <si>
     <t>PIIb</t>
   </si>
   <si>
-    <t>n = 313</t>
+    <t>https://conexiant.com/dermatology/articles/sonelokimab-biologics-show-benefit-in-hidradenitis-suppurativa/</t>
+  </si>
+  <si>
+    <t>adalimumab </t>
+  </si>
+  <si>
+    <t>Bimekizumab </t>
+  </si>
+  <si>
+    <t>Primary endpoint HiSCR75 met with 29 percentage points (ppt) delta vs placebo (p=0.0002) at week 12, setting a new bar in HS</t>
+  </si>
+  <si>
+    <t>M1095-HS-201</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/study/NCT05322473</t>
+  </si>
+  <si>
+    <t>https://clinicaltrials.gov/study/NCT03384745</t>
+  </si>
+  <si>
+    <t>n = 214</t>
+  </si>
+  <si>
+    <t>n=313</t>
   </si>
 </sst>
 </file>
@@ -92,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0,"/>
+    <numFmt numFmtId="164" formatCode="#,##0,"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -132,7 +153,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,20 +435,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:N13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +460,11 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -449,7 +475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -461,7 +487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -469,8 +495,11 @@
         <f>C4*C3</f>
         <v>3526266637.7999997</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -481,8 +510,11 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -490,7 +522,7 @@
         <v>102152</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -500,20 +532,36 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/MoonLake Immunotherapeutics.xlsx
+++ b/MoonLake Immunotherapeutics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCKJAM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193E2274-01C4-4472-BD00-2385943F8224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6E8216-0D84-4551-AF3D-49739B382088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Ticker</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>n=313</t>
+  </si>
+  <si>
+    <t>Secukinumab</t>
   </si>
 </sst>
 </file>
@@ -169,6 +172,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>554117</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>22599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CD6735-39F7-4BCE-F0AF-B793C5DA620D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9957955" y="2545773"/>
+          <a:ext cx="11880207" cy="6811326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>363681</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>129813</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>18249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6694B7CD-AA3E-5794-FE13-7CDAC32C7F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10131136" y="9923318"/>
+          <a:ext cx="11888859" cy="6668431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>436338</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9EAED5-ACA3-0E81-C57A-78477DAB8208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22617546" y="3723409"/>
+          <a:ext cx="11831701" cy="6573167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,8 +577,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +661,9 @@
       <c r="C7" s="2">
         <v>102152</v>
       </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -567,6 +710,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
